--- a/natmiOut/OldD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3530506256266</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H2">
-        <v>15.3530506256266</v>
+        <v>46.789726</v>
       </c>
       <c r="I2">
-        <v>0.474278730793593</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J2">
-        <v>0.474278730793593</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="N2">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="O2">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="P2">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="Q2">
-        <v>141.3373296643307</v>
+        <v>183.723976634888</v>
       </c>
       <c r="R2">
-        <v>141.3373296643307</v>
+        <v>1653.515789713992</v>
       </c>
       <c r="S2">
-        <v>0.03916003974458215</v>
+        <v>0.04893092812472109</v>
       </c>
       <c r="T2">
-        <v>0.03916003974458215</v>
+        <v>0.04893092812472109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3530506256266</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H3">
-        <v>15.3530506256266</v>
+        <v>46.789726</v>
       </c>
       <c r="I3">
-        <v>0.474278730793593</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J3">
-        <v>0.474278730793593</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="N3">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="O3">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="P3">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="Q3">
-        <v>670.994150445658</v>
+        <v>683.774949183184</v>
       </c>
       <c r="R3">
-        <v>670.994150445658</v>
+        <v>6153.974542648656</v>
       </c>
       <c r="S3">
-        <v>0.185910952628288</v>
+        <v>0.1821087454385841</v>
       </c>
       <c r="T3">
-        <v>0.185910952628288</v>
+        <v>0.1821087454385841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3530506256266</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H4">
-        <v>15.3530506256266</v>
+        <v>46.789726</v>
       </c>
       <c r="I4">
-        <v>0.474278730793593</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J4">
-        <v>0.474278730793593</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.5842129598399</v>
+        <v>58.91811866666666</v>
       </c>
       <c r="N4">
-        <v>58.5842129598399</v>
+        <v>176.754356</v>
       </c>
       <c r="O4">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="P4">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="Q4">
-        <v>899.446387434912</v>
+        <v>918.9208762829395</v>
       </c>
       <c r="R4">
-        <v>899.446387434912</v>
+        <v>8270.287886546457</v>
       </c>
       <c r="S4">
-        <v>0.2492077384207229</v>
+        <v>0.2447348036618097</v>
       </c>
       <c r="T4">
-        <v>0.2492077384207229</v>
+        <v>0.2447348036618098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.28457329240808</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H5">
-        <v>6.28457329240808</v>
+        <v>19.198594</v>
       </c>
       <c r="I5">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="J5">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="N5">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="O5">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="P5">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="Q5">
-        <v>57.85461332004675</v>
+        <v>75.384968817272</v>
       </c>
       <c r="R5">
-        <v>57.85461332004675</v>
+        <v>678.464719355448</v>
       </c>
       <c r="S5">
-        <v>0.01602965729153881</v>
+        <v>0.02007716444224746</v>
       </c>
       <c r="T5">
-        <v>0.01602965729153881</v>
+        <v>0.02007716444224746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.28457329240808</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H6">
-        <v>6.28457329240808</v>
+        <v>19.198594</v>
       </c>
       <c r="I6">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="J6">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="N6">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="O6">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="P6">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="Q6">
-        <v>274.6628028578345</v>
+        <v>280.564105819696</v>
       </c>
       <c r="R6">
-        <v>274.6628028578345</v>
+        <v>2525.076952377264</v>
       </c>
       <c r="S6">
-        <v>0.07610025109301026</v>
+        <v>0.07472221289615434</v>
       </c>
       <c r="T6">
-        <v>0.07610025109301026</v>
+        <v>0.07472221289615434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.28457329240808</v>
+        <v>6.399531333333333</v>
       </c>
       <c r="H7">
-        <v>6.28457329240808</v>
+        <v>19.198594</v>
       </c>
       <c r="I7">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="J7">
-        <v>0.1941398825147799</v>
+        <v>0.1952180917624358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.5842129598399</v>
+        <v>58.91811866666666</v>
       </c>
       <c r="N7">
-        <v>58.5842129598399</v>
+        <v>176.754356</v>
       </c>
       <c r="O7">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="P7">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="Q7">
-        <v>368.1767801241572</v>
+        <v>377.0483465083848</v>
       </c>
       <c r="R7">
-        <v>368.1767801241572</v>
+        <v>3393.435118575464</v>
       </c>
       <c r="S7">
-        <v>0.1020099741302309</v>
+        <v>0.100418714424034</v>
       </c>
       <c r="T7">
-        <v>0.1020099741302309</v>
+        <v>0.100418714424034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7337425987326</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H8">
-        <v>10.7337425987326</v>
+        <v>32.356018</v>
       </c>
       <c r="I8">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="J8">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="N8">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="O8">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="P8">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="Q8">
-        <v>98.81283877725915</v>
+        <v>127.048752006584</v>
       </c>
       <c r="R8">
-        <v>98.81283877725915</v>
+        <v>1143.438768059256</v>
       </c>
       <c r="S8">
-        <v>0.02737786756678061</v>
+        <v>0.03383670148357316</v>
       </c>
       <c r="T8">
-        <v>0.02737786756678061</v>
+        <v>0.03383670148357316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7337425987326</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H9">
-        <v>10.7337425987326</v>
+        <v>32.356018</v>
       </c>
       <c r="I9">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="J9">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="N9">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="O9">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="P9">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="Q9">
-        <v>469.1105808064777</v>
+        <v>472.843858152112</v>
       </c>
       <c r="R9">
-        <v>469.1105808064777</v>
+        <v>4255.594723369008</v>
       </c>
       <c r="S9">
-        <v>0.1299754921973867</v>
+        <v>0.125931787789658</v>
       </c>
       <c r="T9">
-        <v>0.1299754921973867</v>
+        <v>0.125931787789658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7337425987326</v>
+        <v>10.78533933333333</v>
       </c>
       <c r="H10">
-        <v>10.7337425987326</v>
+        <v>32.356018</v>
       </c>
       <c r="I10">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="J10">
-        <v>0.3315813866916271</v>
+        <v>0.3290074310124493</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.5842129598399</v>
+        <v>58.91811866666666</v>
       </c>
       <c r="N10">
-        <v>58.5842129598399</v>
+        <v>176.754356</v>
       </c>
       <c r="O10">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="P10">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="Q10">
-        <v>628.8278622602561</v>
+        <v>635.4519027016008</v>
       </c>
       <c r="R10">
-        <v>628.8278622602561</v>
+        <v>5719.067124314408</v>
       </c>
       <c r="S10">
-        <v>0.1742280269274598</v>
+        <v>0.1692389417392181</v>
       </c>
       <c r="T10">
-        <v>0.1742280269274598</v>
+        <v>0.1692389417392182</v>
       </c>
     </row>
   </sheetData>
